--- a/Data/EC/NIT-9014777422.xlsx
+++ b/Data/EC/NIT-9014777422.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8453A23C-61D2-42D1-A0F0-5694471B5A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77706F74-1C08-4E73-8F6C-8AF541BBE401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1123E66F-E0E4-4531-95A6-7019C220D6B6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C5D4127E-51A6-412C-952F-25BAC455C13D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="40">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,52 +71,58 @@
     <t>IVAN DARIO MARTINEZ HOYOS</t>
   </si>
   <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
     <t>2201</t>
   </si>
   <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
+    <t>1143329586</t>
+  </si>
+  <si>
+    <t>ALEJANDRO DE LA CRUZ MARTINEZ HOYOS</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -530,7 +536,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA8360A-865F-699E-7274-E05FB1B30A9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C25E23F-AC93-E8E7-CD40-838D5AD215F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -881,8 +887,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3680013-F1CA-4C6E-8052-F60F8ABCC093}">
-  <dimension ref="B2:J37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034066FB-74BA-42A4-B60C-2F78453ED990}">
+  <dimension ref="B2:J44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -893,7 +899,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -906,7 +912,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -951,7 +957,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -983,12 +989,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>577822</v>
+        <v>853822</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -999,14 +1005,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C13" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F13" s="5">
         <v>16</v>
@@ -1036,13 +1042,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1059,7 +1065,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>36341</v>
+        <v>32707</v>
       </c>
       <c r="G16" s="18">
         <v>908526</v>
@@ -1391,56 +1397,217 @@
       <c r="J30" s="20"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="22" t="s">
+      <c r="B31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="24">
-        <v>32707</v>
-      </c>
-      <c r="G31" s="24">
+      <c r="F31" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G31" s="18">
         <v>908526</v>
       </c>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="18">
+        <v>36000</v>
+      </c>
+      <c r="G32" s="18">
+        <v>689454</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G33" s="18">
+        <v>689454</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G34" s="18">
+        <v>689454</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G35" s="18">
+        <v>689454</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="32"/>
-      <c r="H36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="B36" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G36" s="18">
+        <v>689454</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="20"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="32"/>
-      <c r="H37" s="1" t="s">
+      <c r="B37" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G37" s="18">
+        <v>689454</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="24">
+        <v>40000</v>
+      </c>
+      <c r="G38" s="24">
+        <v>689454</v>
+      </c>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="26"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="32"/>
+      <c r="H43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="C44" s="32"/>
+      <c r="H44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H43:J43"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9014777422.xlsx
+++ b/Data/EC/NIT-9014777422.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77706F74-1C08-4E73-8F6C-8AF541BBE401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{093428C5-CB1B-496F-ACEB-E9921002925A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C5D4127E-51A6-412C-952F-25BAC455C13D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F6A3CCBC-10CE-4CA4-918A-A1C6486B63B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,58 +71,52 @@
     <t>IVAN DARIO MARTINEZ HOYOS</t>
   </si>
   <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
     <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>1143329586</t>
-  </si>
-  <si>
-    <t>ALEJANDRO DE LA CRUZ MARTINEZ HOYOS</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -221,7 +215,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -234,9 +230,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -436,23 +430,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -480,10 +474,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -536,7 +530,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C25E23F-AC93-E8E7-CD40-838D5AD215F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F207A5F-C27A-6785-B6E9-D81BED866D40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -887,8 +881,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034066FB-74BA-42A4-B60C-2F78453ED990}">
-  <dimension ref="B2:J44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063964C0-BE3C-4FEE-A681-F46DDB73D536}">
+  <dimension ref="B2:J37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -899,7 +893,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -912,7 +906,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -957,7 +951,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -989,12 +983,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>853822</v>
+        <v>577822</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1005,14 +999,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F13" s="5">
         <v>16</v>
@@ -1042,13 +1036,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1065,7 +1059,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>32707</v>
+        <v>36341</v>
       </c>
       <c r="G16" s="18">
         <v>908526</v>
@@ -1397,217 +1391,56 @@
       <c r="J30" s="20"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="16" t="s">
+      <c r="B31" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G31" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="18">
-        <v>36000</v>
-      </c>
-      <c r="G32" s="18">
-        <v>689454</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G33" s="18">
-        <v>689454</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G34" s="18">
-        <v>689454</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G35" s="18">
-        <v>689454</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="F31" s="24">
+        <v>32707</v>
+      </c>
+      <c r="G31" s="24">
+        <v>908526</v>
+      </c>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G36" s="18">
-        <v>689454</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="B36" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="32"/>
+      <c r="H36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G37" s="18">
-        <v>689454</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="24">
-        <v>40000</v>
-      </c>
-      <c r="G38" s="24">
-        <v>689454</v>
-      </c>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="26"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" s="32"/>
-      <c r="H43" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="32" t="s">
+      <c r="B37" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="32"/>
+      <c r="H37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="H44" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H36:J36"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
